--- a/Week_2/bugReport.xlsx
+++ b/Week_2/bugReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0551D86C-FC70-4D5B-87F9-0CED51B4E1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227ABA35-665A-4190-B2D5-3FEDEB1A3D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4805FC16-1F76-436B-B6CF-577393A87C63}"/>
+    <workbookView xWindow="4080" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{4805FC16-1F76-436B-B6CF-577393A87C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>the page is empty</t>
+  </si>
+  <si>
+    <t>Critical</t>
   </si>
 </sst>
 </file>
@@ -328,9 +328,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -343,17 +340,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4157DD2-846C-4DE4-BCC9-7C61CDEAEC84}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +775,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -783,176 +783,176 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="8" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -960,7 +960,7 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -968,176 +968,176 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
+    <row r="29" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="4" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Week_2/bugReport.xlsx
+++ b/Week_2/bugReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\QA\Week_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227ABA35-665A-4190-B2D5-3FEDEB1A3D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3227BEC-64BC-4356-A8E9-EB4300F2F3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{4805FC16-1F76-436B-B6CF-577393A87C63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4805FC16-1F76-436B-B6CF-577393A87C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Category</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>After these two bugs, further testing makes no sense because the main functionality is missing</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +252,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -258,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -318,12 +329,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -354,6 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4157DD2-846C-4DE4-BCC9-7C61CDEAEC84}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,8 +1164,16 @@
         <v>21</v>
       </c>
     </row>
+    <row r="41" spans="1:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A39"/>
